--- a/demo/TestConfig.xlsx
+++ b/demo/TestConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Course Equivalents" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="199">
   <si>
     <t xml:space="preserve">CE3963</t>
   </si>
@@ -620,15 +620,6 @@
   </si>
   <si>
     <t xml:space="preserve">Senior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS1083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS2043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS3997</t>
   </si>
 </sst>
 </file>
@@ -723,12 +714,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -740,7 +731,7 @@
   </sheetPr>
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1739,10 +1730,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1778,22 +1769,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/demo/TestConfig.xlsx
+++ b/demo/TestConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Course Equivalents" sheetId="1" state="visible" r:id="rId2"/>
@@ -714,12 +714,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1663,8 +1663,8 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1686,7 +1686,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>187</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>191</v>
       </c>
@@ -1730,9 +1730,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/demo/TestConfig.xlsx
+++ b/demo/TestConfig.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="204">
   <si>
     <t xml:space="preserve">CE3963</t>
   </si>
@@ -325,178 +325,193 @@
     <t xml:space="preserve">SOCI2533</t>
   </si>
   <si>
+    <t xml:space="preserve">MATH1863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGG1015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM2223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCI2534</t>
+  </si>
+  <si>
     <t xml:space="preserve">MATH2513</t>
   </si>
   <si>
-    <t xml:space="preserve">BIOL1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGG1015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM2223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOCI2534</t>
+    <t xml:space="preserve">BIOL1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGG1082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM2313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STS1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH3213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL1017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGG4013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM2413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH3243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL1621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM2513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH3373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL1622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM3155</t>
   </si>
   <si>
     <t xml:space="preserve">MATH3503</t>
   </si>
   <si>
-    <t xml:space="preserve">BIOL1012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGG1082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM2313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STS1003</t>
+    <t xml:space="preserve">BIOL2033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM3315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH3543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL2043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM3415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL2053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM3445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL2615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM4437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL2753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTH1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL2792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTH1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM1041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAS1403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM1046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAS1413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM1072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAS1503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM1077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAS3053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON1013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM2401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEOL1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON1073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEOL1044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR1304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEOL1063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GER1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEOL1074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GER4023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYS5993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIST1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIST3414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUM1401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPNS1013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIL1053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIL1101</t>
   </si>
   <si>
     <t xml:space="preserve">STAT2593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOL1017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGG4013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM2413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOL1621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS1023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM2513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOL1622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM3155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOL2033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM3315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOL2043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM3415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOL2053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM3445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOL2615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM4437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOL2753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTH1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOL2792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTH1002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEM1041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAS1403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEM1046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAS1413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEM1072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAS1503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEM1077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAS3053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON1013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEM2401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON1023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEOL1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON1073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEOL1044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR1304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEOL1063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEOL1074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER4023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHYS5993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIST1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIST3414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUM1401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPNS1013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIL1053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIL1101</t>
   </si>
   <si>
     <t xml:space="preserve">POLS1201</t>
@@ -995,7 +1010,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1008,8 +1023,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1034,7 +1049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>84</v>
       </c>
@@ -1060,7 +1075,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>90</v>
       </c>
@@ -1086,7 +1101,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>95</v>
       </c>
@@ -1112,7 +1127,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>100</v>
       </c>
@@ -1138,7 +1153,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>105</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>110</v>
       </c>
@@ -1187,12 +1202,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>21</v>
@@ -1201,12 +1219,15 @@
         <v>86</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>118</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>5</v>
@@ -1215,15 +1236,18 @@
         <v>17</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>121</v>
+      </c>
       <c r="B10" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>4</v>
@@ -1232,12 +1256,15 @@
         <v>3</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>12</v>
@@ -1246,12 +1273,12 @@
         <v>4</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>13</v>
@@ -1260,12 +1287,12 @@
         <v>5</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>16</v>
@@ -1274,12 +1301,12 @@
         <v>7</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>17</v>
@@ -1288,12 +1315,12 @@
         <v>8</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>15</v>
@@ -1302,12 +1329,12 @@
         <v>9</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>9</v>
@@ -1316,12 +1343,12 @@
         <v>10</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>21</v>
@@ -1330,29 +1357,29 @@
         <v>11</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,7 +1390,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,73 +1401,73 @@
         <v>16</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>97</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>102</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,7 +1475,7 @@
         <v>107</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,7 +1499,7 @@
         <v>90</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,104 +1507,104 @@
         <v>95</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="0" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G37" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G38" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G39" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G40" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G41" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G42" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G43" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G44" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G45" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G47" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G48" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G49" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,7 +1619,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G52" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1602,47 +1629,47 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G54" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G55" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G56" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G57" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G58" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G59" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G60" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G61" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G62" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1664,54 +1691,54 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1738,21 +1765,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
